--- a/data/testcases_info.xlsx
+++ b/data/testcases_info.xlsx
@@ -1,182 +1,503 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD75974-BF99-4F3C-BC07-97A4697EC6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>测试用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头部信息</t>
   </si>
   <si>
     <t>请求地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数（get）</t>
   </si>
   <si>
     <t>请求参数（post）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求参数（get）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值方式</t>
+  </si>
+  <si>
+    <t>取值代码</t>
+  </si>
+  <si>
+    <t>取值变量</t>
   </si>
   <si>
     <t>api_case_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取access_token接口测试</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>step_01</t>
+  </si>
+  <si>
+    <t>获取access_token接口</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/cgi-bin/token</t>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wx8969c59ed2ed87de","secret":"e3d1d2bc3db1f1f239582eaf7ffcdcfa"}</t>
+  </si>
+  <si>
+    <t>jsonpath取值</t>
+  </si>
+  <si>
+    <t>$access_token</t>
   </si>
   <si>
     <t>api_case_02</t>
   </si>
   <si>
+    <t>创建标签接口测试</t>
+  </si>
+  <si>
+    <t>正则取值</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>step_02</t>
+  </si>
+  <si>
+    <t>创建标签接口</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/create</t>
+  </si>
+  <si>
+    <t>{"access_token":""} ${token}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "tag" : { "name" : "广东"} } </t>
+  </si>
+  <si>
     <t>api_case_03</t>
   </si>
   <si>
-    <t>获取access_token接口测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取access_token接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cgi-bin/token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"grant_type":"client_credential","appid":"wx8969c59ed2ed87de","secret":"e3d1d2bc3db1f1f239582eaf7ffcdcfa"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建标签接口测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建标签接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"access_token":""} ${token}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ "tag" : { "name" : "广东"} } </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除标签接口测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>step_03</t>
   </si>
   <si>
     <t>删除标签接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/delete</t>
   </si>
   <si>
     <t xml:space="preserve">{   "tag":{        "id" : ${tag_id}   } } </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -184,30 +505,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -291,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -465,35 +1072,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="9" width="17.77734375" customWidth="1"/>
+    <col min="3" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="6" max="7" width="17.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.4416666666667" customWidth="1"/>
+    <col min="9" max="10" width="17.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,174 +1118,224 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7">
+      <formula1>"jsonpath取值,正则取值"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/testcases_info.xlsx
+++ b/data/testcases_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -79,19 +79,19 @@
     <t>{"grant_type":"client_credential","appid":"wx8969c59ed2ed87de","secret":"e3d1d2bc3db1f1f239582eaf7ffcdcfa"}</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>api_case_02</t>
+  </si>
+  <si>
+    <t>创建标签接口测试</t>
+  </si>
+  <si>
     <t>jsonpath取值</t>
   </si>
   <si>
-    <t>$access_token</t>
-  </si>
-  <si>
-    <t>api_case_02</t>
-  </si>
-  <si>
-    <t>创建标签接口测试</t>
-  </si>
-  <si>
-    <t>正则取值</t>
+    <t>$.access_token</t>
   </si>
   <si>
     <t>token</t>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>删除标签接口测试</t>
+  </si>
+  <si>
+    <t>$.tag.id</t>
+  </si>
+  <si>
+    <t>tag_id</t>
   </si>
   <si>
     <t>step_03</t>
@@ -138,12 +144,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,27 +161,88 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,9 +250,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,107 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,12 +311,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,169 +401,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +502,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,33 +531,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,167 +573,180 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,8 +1079,8 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1136,7 +1135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1163,17 +1162,14 @@
       </c>
       <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1194,10 +1190,10 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
         <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -1228,7 +1224,7 @@
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1257,16 +1253,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -1291,7 +1287,13 @@
         <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1301,25 +1303,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1329,8 +1331,11 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4 K7">
+      <formula1>"jsonpath取值,正则取值,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K5 K6">
       <formula1>"jsonpath取值,正则取值"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/testcases_info.xlsx
+++ b/data/testcases_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\API_Test_Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF2F53C-4C5A-456E-97A8-492EFC39784E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21292F25-A1B6-441F-90AC-5490DA41B9AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -157,11 +157,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期望结果类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json_key_value</t>
+  </si>
+  <si>
+    <t>{"expires_in":7200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json_key</t>
+  </si>
+  <si>
+    <t>tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +504,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -507,7 +521,7 @@
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="16.5546875" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -551,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
         <v>43</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -585,6 +599,12 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -619,6 +639,12 @@
       </c>
       <c r="M3" t="s">
         <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -647,6 +673,12 @@
       </c>
       <c r="K4" t="s">
         <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -754,13 +786,16 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4 K7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"jsonpath取值,正则取值,无"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K5:K6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"jsonpath取值,正则取值"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{00BABA71-48F0-481C-9DFF-9527C18AD252}">
+      <formula1>"json_key,json_key_value,正则比对,无"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/testcases_info.xlsx
+++ b/data/testcases_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\API_Test_Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21292F25-A1B6-441F-90AC-5490DA41B9AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF128E43-2C70-4CAD-8769-8A5756C06EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -177,13 +177,16 @@
   <si>
     <t>tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则比对</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +197,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -218,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -226,6 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -504,7 +516,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -599,11 +611,11 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
+      <c r="N2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -786,18 +798,21 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4 K7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"jsonpath取值,正则取值,无"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K5:K6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"jsonpath取值,正则取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{00BABA71-48F0-481C-9DFF-9527C18AD252}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4" xr:uid="{00BABA71-48F0-481C-9DFF-9527C18AD252}">
       <formula1>"json_key,json_key_value,正则比对,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{9B15E145-128D-4CD1-89C3-5E8C3A674E9F}">
+      <formula1>"json_key,json_key_value,body_regexp,none,header_key,header_key_value,response_code"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/testcases_info.xlsx
+++ b/data/testcases_info.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\API_Test_Framework\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF128E43-2C70-4CAD-8769-8A5756C06EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -52,12 +46,21 @@
     <t>请求参数（post）</t>
   </si>
   <si>
+    <t>取值方式</t>
+  </si>
+  <si>
     <t>取值代码</t>
   </si>
   <si>
     <t>取值变量</t>
   </si>
   <si>
+    <t>断言类型</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
     <t>api_case_01</t>
   </si>
   <si>
@@ -85,42 +88,81 @@
     <t>无</t>
   </si>
   <si>
+    <t>body_regexp</t>
+  </si>
+  <si>
+    <t>"access_token":"(.+?)"</t>
+  </si>
+  <si>
     <t>api_case_02</t>
   </si>
   <si>
     <t>创建标签接口测试</t>
   </si>
   <si>
+    <t>正则取值</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>json_key_value</t>
+  </si>
+  <si>
+    <t>{"expires_in":7200}</t>
+  </si>
+  <si>
+    <t>step_02</t>
+  </si>
+  <si>
+    <t>创建标签接口</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/create</t>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "tag" : { "name" : "上海122"} } </t>
+  </si>
+  <si>
+    <t>json_key</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>api_case_03</t>
+  </si>
+  <si>
+    <t>删除标签接口测试</t>
+  </si>
+  <si>
+    <t>jsonpath取值</t>
+  </si>
+  <si>
     <t>$.access_token</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>step_02</t>
-  </si>
-  <si>
-    <t>创建标签接口</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ "tag" : { "name" : "广东"} } </t>
-  </si>
-  <si>
-    <t>api_case_03</t>
-  </si>
-  <si>
-    <t>删除标签接口测试</t>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "tag" : { "name" : "上海169"} } </t>
+  </si>
+  <si>
+    <t>"id":(.+?),</t>
   </si>
   <si>
     <t>tag_id</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>step_03</t>
   </si>
   <si>
@@ -130,63 +172,23 @@
     <t>/cgi-bin/tags/delete</t>
   </si>
   <si>
-    <t>jsonpath取值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">{   "tag":{        "id" : ${tag_id}   } } </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"access_token":${token}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取值方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正则取值</t>
-  </si>
-  <si>
-    <t>"access_token":"(.+?)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"id":(.+?),</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json_key_value</t>
-  </si>
-  <si>
-    <t>{"expires_in":7200}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json_key</t>
-  </si>
-  <si>
-    <t>tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正则比对</t>
+  </si>
+  <si>
+    <t>{"errcode":0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,29 +197,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -225,9 +543,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -237,19 +797,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -507,36 +1111,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="95.88671875" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.775" customWidth="1"/>
+    <col min="8" max="8" width="18.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="95.8833333333333" customWidth="1"/>
+    <col min="10" max="10" width="44.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="16.5583333333333" customWidth="1"/>
+    <col min="14" max="14" width="18.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,251 +1172,266 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>41</v>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
+      <c r="N5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4 K7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4 K7">
       <formula1>"jsonpath取值,正则取值,无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K5:K6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N4 N5 N6 N7">
+      <formula1>"json_key,json_key_value,body_regexp,none,header_key,header_key_value,response_code"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K5:K6">
       <formula1>"jsonpath取值,正则取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4" xr:uid="{00BABA71-48F0-481C-9DFF-9527C18AD252}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3">
       <formula1>"json_key,json_key_value,正则比对,无"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{9B15E145-128D-4CD1-89C3-5E8C3A674E9F}">
-      <formula1>"json_key,json_key_value,body_regexp,none,header_key,header_key_value,response_code"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/testcases_info.xlsx
+++ b/data/testcases_info.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\API_Test_Framework\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E0DF5-8E8D-41E6-B93D-BE6AD19BC543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -176,19 +182,17 @@
   </si>
   <si>
     <t>{"errcode":0}</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,345 +201,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -543,317 +223,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,36 +505,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="17.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.775" customWidth="1"/>
-    <col min="8" max="8" width="18.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="95.8833333333333" customWidth="1"/>
-    <col min="10" max="10" width="44.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="12.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="16.5583333333333" customWidth="1"/>
-    <col min="14" max="14" width="18.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="21.6666666666667" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="95.88671875" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +598,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -1215,18 +609,18 @@
       <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
@@ -1263,9 +657,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>17</v>
       </c>
@@ -1290,18 +684,18 @@
       <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
@@ -1331,16 +725,16 @@
       <c r="M5" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -1371,13 +765,13 @@
       <c r="M6" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>17</v>
       </c>
@@ -1402,7 +796,7 @@
       <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O7" t="s">
@@ -1416,22 +810,22 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4 K7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K4 K7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"jsonpath取值,正则取值,无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N4 N5 N6 N7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N4 N5 N6 N7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"json_key,json_key_value,body_regexp,none,header_key,header_key_value,response_code"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K5:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K5:K6" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"jsonpath取值,正则取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"json_key,json_key_value,正则比对,无"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>